--- a/biology/Zoologie/Dotillidae/Dotillidae.xlsx
+++ b/biology/Zoologie/Dotillidae/Dotillidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dotillidae sont une famille de crabes amphibies. 
 Elle comprend 59 espèces en 9 genres.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les représentants de la super-famille des Ocypodoidea, ces crabes vivent dans des terriers creusés dans le sable humide des plages, et se nourrissent dans la laisse de mer. Une partie des représentants de cette famille sont connus pour agglomérer des boulettes de sable à l'aide de leur salive visqueuse (en anglais, sand bubbler crabs). 
 </t>
@@ -543,7 +557,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dotilla Stimpson, 1858
 Dotilloplax Tweedie, 1950
@@ -585,7 +601,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Stimpson, 1858 : Prodromus descriptionis animalium evertebratorum, quae in Expeditione ad Oceanum Pacificum Septentrionalem, a Republica Federata missa, Cadwaladaro Ringgold et Johanne Rodgers Ducibus, observavit et descripsit. Pars V. Crustacea Ocypodoidea. Proceedings of the Academy of Natural Sciences of Philadelphia vol. 10, p. 93–110.</t>
         </is>
@@ -615,7 +633,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ng, Guinot &amp; Davie, 2008 : Systema Brachyurorum: Part I. An annotated checklist of extant brachyuran crabs of the world. Raffles Bulletin of Zoology Supplement, n. 17 p. 1–286.</t>
         </is>
